--- a/PortNewark/Test.xlsx
+++ b/PortNewark/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="441">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -32,7 +32,163 @@
     <t>BOLNumber</t>
   </si>
   <si>
-    <t>CAIU8707183</t>
+    <t>GCNU1272958</t>
+  </si>
+  <si>
+    <t>ATLANTIC SKY</t>
+  </si>
+  <si>
+    <t>ATK2819</t>
+  </si>
+  <si>
+    <t>SA003811870302</t>
+  </si>
+  <si>
+    <t>ATK2819SA00381187</t>
+  </si>
+  <si>
+    <t>MSCU5226297</t>
+  </si>
+  <si>
+    <t>MSC BUSAN</t>
+  </si>
+  <si>
+    <t>IU910R</t>
+  </si>
+  <si>
+    <t>9077905759-01</t>
+  </si>
+  <si>
+    <t>MEDUBH029531</t>
+  </si>
+  <si>
+    <t>ACLU9745863</t>
+  </si>
+  <si>
+    <t>SA003800940102</t>
+  </si>
+  <si>
+    <t>ATK2819SA00380094</t>
+  </si>
+  <si>
+    <t>SEGU4683753</t>
+  </si>
+  <si>
+    <t>SA003829630101</t>
+  </si>
+  <si>
+    <t>ATK2819SA00382963</t>
+  </si>
+  <si>
+    <t>SEGU9441454</t>
+  </si>
+  <si>
+    <t>ARCHIMIDIS</t>
+  </si>
+  <si>
+    <t>00918</t>
+  </si>
+  <si>
+    <t>7062179037</t>
+  </si>
+  <si>
+    <t>MEDUAM547413</t>
+  </si>
+  <si>
+    <t>GESU6073040</t>
+  </si>
+  <si>
+    <t>9077905761-01</t>
+  </si>
+  <si>
+    <t>MEDUBH029325</t>
+  </si>
+  <si>
+    <t>GCNU4754212</t>
+  </si>
+  <si>
+    <t>SA003865210101</t>
+  </si>
+  <si>
+    <t>ATK2819SA00386521</t>
+  </si>
+  <si>
+    <t>ACLU9755630</t>
+  </si>
+  <si>
+    <t>SA003783400101</t>
+  </si>
+  <si>
+    <t>ATK2819SA00378340</t>
+  </si>
+  <si>
+    <t>HDMU6472304</t>
+  </si>
+  <si>
+    <t>MAERSK KARACHI</t>
+  </si>
+  <si>
+    <t>00916</t>
+  </si>
+  <si>
+    <t>7300381764</t>
+  </si>
+  <si>
+    <t>HDMUTHWB1073532</t>
+  </si>
+  <si>
+    <t>TCLU6625713</t>
+  </si>
+  <si>
+    <t>BMOU4704864</t>
+  </si>
+  <si>
+    <t>HDMU6562516</t>
+  </si>
+  <si>
+    <t>BSIU9230059</t>
+  </si>
+  <si>
+    <t>TCNU5092643</t>
+  </si>
+  <si>
+    <t>SEGU4670988</t>
+  </si>
+  <si>
+    <t>SA003819670701</t>
+  </si>
+  <si>
+    <t>ATK2819SA00381967</t>
+  </si>
+  <si>
+    <t>ACLU9688064</t>
+  </si>
+  <si>
+    <t>02819</t>
+  </si>
+  <si>
+    <t>7300383179</t>
+  </si>
+  <si>
+    <t>ACLUSA00381666</t>
+  </si>
+  <si>
+    <t>ACLU9655395</t>
+  </si>
+  <si>
+    <t>ATLANTIC SEA</t>
+  </si>
+  <si>
+    <t>ATE2919</t>
+  </si>
+  <si>
+    <t>9071906250-01</t>
+  </si>
+  <si>
+    <t>ACLUSA00388797</t>
+  </si>
+  <si>
+    <t>ACLU9737960</t>
   </si>
   <si>
     <t>ATLANTIC STAR</t>
@@ -41,55 +197,73 @@
     <t>AST3019</t>
   </si>
   <si>
-    <t>SA003732900101</t>
-  </si>
-  <si>
-    <t>AST3019SA00373290</t>
-  </si>
-  <si>
-    <t>MSKU6753007</t>
-  </si>
-  <si>
-    <t>MAERSK KARACHI</t>
-  </si>
-  <si>
-    <t>00916</t>
-  </si>
-  <si>
-    <t>7300382461</t>
-  </si>
-  <si>
-    <t>581371028</t>
-  </si>
-  <si>
-    <t>MSKU0775210</t>
-  </si>
-  <si>
-    <t>GLDU0472163</t>
-  </si>
-  <si>
-    <t>7300382464</t>
-  </si>
-  <si>
-    <t>581469142</t>
-  </si>
-  <si>
-    <t>MRKU0239581</t>
-  </si>
-  <si>
-    <t>PONU1852270</t>
-  </si>
-  <si>
-    <t>ACLU9782419</t>
-  </si>
-  <si>
-    <t>SA003743910101</t>
-  </si>
-  <si>
-    <t>AST3019SA00374391</t>
-  </si>
-  <si>
-    <t>CARU4402623</t>
+    <t>SA003785960101</t>
+  </si>
+  <si>
+    <t>AST3019SA00378596</t>
+  </si>
+  <si>
+    <t>BMOU4623530</t>
+  </si>
+  <si>
+    <t>SA003660110101</t>
+  </si>
+  <si>
+    <t>ATK2819SA00366011</t>
+  </si>
+  <si>
+    <t>SUDU5227850</t>
+  </si>
+  <si>
+    <t>MAERSK GAIRLOCH</t>
+  </si>
+  <si>
+    <t>920W</t>
+  </si>
+  <si>
+    <t>9077905659-01</t>
+  </si>
+  <si>
+    <t>MAEU582182953</t>
+  </si>
+  <si>
+    <t>MWMU6384362</t>
+  </si>
+  <si>
+    <t>MSC SORAYA</t>
+  </si>
+  <si>
+    <t>00920</t>
+  </si>
+  <si>
+    <t>7062188151</t>
+  </si>
+  <si>
+    <t>MAEU968874385</t>
+  </si>
+  <si>
+    <t>MNBU4123795</t>
+  </si>
+  <si>
+    <t>7062188152</t>
+  </si>
+  <si>
+    <t>ACLU9680654</t>
+  </si>
+  <si>
+    <t>SA003838910301</t>
+  </si>
+  <si>
+    <t>ATK2819SA00383891</t>
+  </si>
+  <si>
+    <t>ACLU9701778</t>
+  </si>
+  <si>
+    <t>SA003819670801</t>
+  </si>
+  <si>
+    <t>CXDU2148019</t>
   </si>
   <si>
     <t>S SANTIAGO</t>
@@ -98,183 +272,54 @@
     <t>919W</t>
   </si>
   <si>
-    <t>7062185786</t>
-  </si>
-  <si>
-    <t>MEDULE969646</t>
-  </si>
-  <si>
-    <t>GCNU1272958</t>
-  </si>
-  <si>
-    <t>ATLANTIC SKY</t>
-  </si>
-  <si>
-    <t>ATK2819</t>
-  </si>
-  <si>
-    <t>SA003811870302</t>
-  </si>
-  <si>
-    <t>ATK2819SA00381187</t>
-  </si>
-  <si>
-    <t>ACLU9745863</t>
-  </si>
-  <si>
-    <t>SA003800940102</t>
-  </si>
-  <si>
-    <t>ATK2819SA00380094</t>
-  </si>
-  <si>
-    <t>SEGU4683753</t>
-  </si>
-  <si>
-    <t>SA003829630101</t>
-  </si>
-  <si>
-    <t>ATK2819SA00382963</t>
-  </si>
-  <si>
-    <t>SEGU9441454</t>
-  </si>
-  <si>
-    <t>ARCHIMIDIS</t>
-  </si>
-  <si>
-    <t>00918</t>
-  </si>
-  <si>
-    <t>7062179037</t>
-  </si>
-  <si>
-    <t>MEDUAM547413</t>
-  </si>
-  <si>
-    <t>ACLU9714287</t>
-  </si>
-  <si>
-    <t>FREYA</t>
-  </si>
-  <si>
-    <t>FRY5419</t>
-  </si>
-  <si>
-    <t>SA003765080201</t>
-  </si>
-  <si>
-    <t>FRY5419SA00376508</t>
-  </si>
-  <si>
-    <t>GCNU4754212</t>
-  </si>
-  <si>
-    <t>SA003865210101</t>
-  </si>
-  <si>
-    <t>ATK2819SA00386521</t>
-  </si>
-  <si>
-    <t>ACLU9755630</t>
-  </si>
-  <si>
-    <t>SA003783400101</t>
-  </si>
-  <si>
-    <t>ATK2819SA00378340</t>
-  </si>
-  <si>
-    <t>SEGU4670988</t>
-  </si>
-  <si>
-    <t>SA003819670701</t>
-  </si>
-  <si>
-    <t>ATK2819SA00381967</t>
-  </si>
-  <si>
-    <t>ACLU9688064</t>
-  </si>
-  <si>
-    <t>02819</t>
-  </si>
-  <si>
-    <t>7300383179</t>
-  </si>
-  <si>
-    <t>ACLUSA00381666</t>
-  </si>
-  <si>
-    <t>ACLU9737960</t>
-  </si>
-  <si>
-    <t>SA003785960101</t>
-  </si>
-  <si>
-    <t>AST3019SA00378596</t>
-  </si>
-  <si>
-    <t>BMOU4623530</t>
-  </si>
-  <si>
-    <t>SA003660110101</t>
-  </si>
-  <si>
-    <t>ATK2819SA00366011</t>
-  </si>
-  <si>
-    <t>MWMU6384362</t>
-  </si>
-  <si>
-    <t>MSC SORAYA</t>
-  </si>
-  <si>
-    <t>00920</t>
-  </si>
-  <si>
-    <t>7062188151</t>
-  </si>
-  <si>
-    <t>MAEU968874385</t>
-  </si>
-  <si>
-    <t>MNBU4123795</t>
-  </si>
-  <si>
-    <t>7062188152</t>
-  </si>
-  <si>
-    <t>ACLU9680654</t>
-  </si>
-  <si>
-    <t>SA003838910301</t>
-  </si>
-  <si>
-    <t>ATK2819SA00383891</t>
-  </si>
-  <si>
-    <t>ACLU9701778</t>
-  </si>
-  <si>
-    <t>SA003819670801</t>
-  </si>
-  <si>
-    <t>CXDU2148019</t>
-  </si>
-  <si>
     <t>9076905707-01</t>
   </si>
   <si>
     <t>MEDUBN760104</t>
   </si>
   <si>
+    <t>TCLU5366285</t>
+  </si>
+  <si>
+    <t>7062182734</t>
+  </si>
+  <si>
+    <t>MEDUHO453110</t>
+  </si>
+  <si>
+    <t>MEDU8801523</t>
+  </si>
+  <si>
+    <t>MEDU8686369</t>
+  </si>
+  <si>
+    <t>MEDU8804230</t>
+  </si>
+  <si>
+    <t>TCNU2645257</t>
+  </si>
+  <si>
+    <t>TGCU5012220</t>
+  </si>
+  <si>
+    <t>MSDU7064162</t>
+  </si>
+  <si>
+    <t>MEDU4686777</t>
+  </si>
+  <si>
+    <t>GLDU7682639</t>
+  </si>
+  <si>
+    <t>MSCU7805868</t>
+  </si>
+  <si>
+    <t>TGBU5717108</t>
+  </si>
+  <si>
     <t>MSCU7483843</t>
   </si>
   <si>
-    <t>920W</t>
-  </si>
-  <si>
     <t>7062181973</t>
   </si>
   <si>
@@ -284,12 +329,18 @@
     <t>TRIU8751192</t>
   </si>
   <si>
+    <t>ACLU9653812</t>
+  </si>
+  <si>
+    <t>9071906251-01</t>
+  </si>
+  <si>
+    <t>ACLUSA00389360</t>
+  </si>
+  <si>
     <t>MEDU6855449</t>
   </si>
   <si>
-    <t>MSC BUSAN</t>
-  </si>
-  <si>
     <t>917A</t>
   </si>
   <si>
@@ -299,6 +350,18 @@
     <t>MEDUHA266822</t>
   </si>
   <si>
+    <t>ACLU9740331</t>
+  </si>
+  <si>
+    <t>2819</t>
+  </si>
+  <si>
+    <t>7300383977</t>
+  </si>
+  <si>
+    <t>ACLUSA00383368</t>
+  </si>
+  <si>
     <t>SEGU9279940</t>
   </si>
   <si>
@@ -332,6 +395,15 @@
     <t>ATK2819SA00380512</t>
   </si>
   <si>
+    <t>ACLU9790728</t>
+  </si>
+  <si>
+    <t>SA003865220101</t>
+  </si>
+  <si>
+    <t>ATK2819SA00386522</t>
+  </si>
+  <si>
     <t>SEGU9476682</t>
   </si>
   <si>
@@ -344,6 +416,30 @@
     <t>MEDUAM627603</t>
   </si>
   <si>
+    <t>CAIU2437413</t>
+  </si>
+  <si>
+    <t>SEROJA LIMA</t>
+  </si>
+  <si>
+    <t>00917</t>
+  </si>
+  <si>
+    <t>7062175051</t>
+  </si>
+  <si>
+    <t>IHWB0213562</t>
+  </si>
+  <si>
+    <t>TTNU5414948</t>
+  </si>
+  <si>
+    <t>7062188177</t>
+  </si>
+  <si>
+    <t>MEDULE969711</t>
+  </si>
+  <si>
     <t>ACLU9666532</t>
   </si>
   <si>
@@ -359,6 +455,15 @@
     <t>ACLU9692871</t>
   </si>
   <si>
+    <t>GCNU4041654</t>
+  </si>
+  <si>
+    <t>SA003742360101</t>
+  </si>
+  <si>
+    <t>ATK2819SA00374236</t>
+  </si>
+  <si>
     <t>SEGU3337648</t>
   </si>
   <si>
@@ -395,12 +500,45 @@
     <t>ATK2819SA00375463</t>
   </si>
   <si>
+    <t>MNBU0210886</t>
+  </si>
+  <si>
+    <t>LAUST MAERSK</t>
+  </si>
+  <si>
+    <t>00921</t>
+  </si>
+  <si>
+    <t>7062190874</t>
+  </si>
+  <si>
+    <t>MAEU968945078</t>
+  </si>
+  <si>
     <t>ACLU9757118</t>
   </si>
   <si>
     <t>SA003838910202</t>
   </si>
   <si>
+    <t>BMOU2198767</t>
+  </si>
+  <si>
+    <t>7062176040</t>
+  </si>
+  <si>
+    <t>IHWB0213582</t>
+  </si>
+  <si>
+    <t>MNBU3726813</t>
+  </si>
+  <si>
+    <t>921W</t>
+  </si>
+  <si>
+    <t>7062190875</t>
+  </si>
+  <si>
     <t>GCNU4719295</t>
   </si>
   <si>
@@ -419,24 +557,9 @@
     <t>ATK2819SA00386549</t>
   </si>
   <si>
-    <t>GCNU4736380</t>
-  </si>
-  <si>
-    <t>SA003674500101</t>
-  </si>
-  <si>
-    <t>AST3019SA00367450</t>
-  </si>
-  <si>
     <t>PONU1789373</t>
   </si>
   <si>
-    <t>SEROJA LIMA</t>
-  </si>
-  <si>
-    <t>00917</t>
-  </si>
-  <si>
     <t>7062172023</t>
   </si>
   <si>
@@ -485,21 +608,6 @@
     <t>MAEU968884235</t>
   </si>
   <si>
-    <t>GCNU4758537</t>
-  </si>
-  <si>
-    <t>SA003679630201</t>
-  </si>
-  <si>
-    <t>AST3019SA00367963</t>
-  </si>
-  <si>
-    <t>GCNU4729312</t>
-  </si>
-  <si>
-    <t>SA003765080301</t>
-  </si>
-  <si>
     <t>ACLU9771585</t>
   </si>
   <si>
@@ -566,6 +674,15 @@
     <t>ATK2819SA00370652</t>
   </si>
   <si>
+    <t>FCIU9790734</t>
+  </si>
+  <si>
+    <t>SA003865240101</t>
+  </si>
+  <si>
+    <t>ATK2819SA00386524</t>
+  </si>
+  <si>
     <t>MRKU4256993</t>
   </si>
   <si>
@@ -581,6 +698,15 @@
     <t>MAEU581709034</t>
   </si>
   <si>
+    <t>CAIU9591565</t>
+  </si>
+  <si>
+    <t>7062175108</t>
+  </si>
+  <si>
+    <t>SI172728</t>
+  </si>
+  <si>
     <t>SEGU4681067</t>
   </si>
   <si>
@@ -608,16 +734,25 @@
     <t>SA003819670301</t>
   </si>
   <si>
-    <t>ACLU9674029</t>
-  </si>
-  <si>
-    <t>7300383340</t>
-  </si>
-  <si>
-    <t>ACLUSA00383283</t>
-  </si>
-  <si>
-    <t>CAIU9032192</t>
+    <t>ACLU9724449</t>
+  </si>
+  <si>
+    <t>ATLANTIC SUN</t>
+  </si>
+  <si>
+    <t>03019</t>
+  </si>
+  <si>
+    <t>7300384668</t>
+  </si>
+  <si>
+    <t>ACLUSA00386585</t>
+  </si>
+  <si>
+    <t>GCNU4677517</t>
+  </si>
+  <si>
+    <t>GCNU4716125</t>
   </si>
   <si>
     <t>MNBU3482065</t>
@@ -668,6 +803,15 @@
     <t>MAEU581709039</t>
   </si>
   <si>
+    <t>BSIU3054820</t>
+  </si>
+  <si>
+    <t>SA003817370104</t>
+  </si>
+  <si>
+    <t>AST3019SA00381737</t>
+  </si>
+  <si>
     <t>MSKU2859011</t>
   </si>
   <si>
@@ -704,6 +848,15 @@
     <t>9077905145-01</t>
   </si>
   <si>
+    <t>TCNU9371522</t>
+  </si>
+  <si>
+    <t>9077905762-01</t>
+  </si>
+  <si>
+    <t>SA003785960102</t>
+  </si>
+  <si>
     <t>GCNU4706370</t>
   </si>
   <si>
@@ -821,6 +974,15 @@
     <t>ATK2819SA00368333</t>
   </si>
   <si>
+    <t>GCNU4705645</t>
+  </si>
+  <si>
+    <t>SA003838070101</t>
+  </si>
+  <si>
+    <t>ATK2819SA00383807</t>
+  </si>
+  <si>
     <t>ACLU9691108</t>
   </si>
   <si>
@@ -854,6 +1016,15 @@
     <t>SA003811870202</t>
   </si>
   <si>
+    <t>GCNU4709044</t>
+  </si>
+  <si>
+    <t>SA003774400101</t>
+  </si>
+  <si>
+    <t>ATK2819SA00377440</t>
+  </si>
+  <si>
     <t>MEDU5442219</t>
   </si>
   <si>
@@ -908,6 +1079,18 @@
     <t>MAEU581187049</t>
   </si>
   <si>
+    <t>MRKU2074270</t>
+  </si>
+  <si>
+    <t>MAERSK KENTUCKY</t>
+  </si>
+  <si>
+    <t>7250577920</t>
+  </si>
+  <si>
+    <t>MAEU581689786</t>
+  </si>
+  <si>
     <t>MRKU6488745</t>
   </si>
   <si>
@@ -926,18 +1109,6 @@
     <t>ATK2819SA00386523</t>
   </si>
   <si>
-    <t>GCNU1242341</t>
-  </si>
-  <si>
-    <t>DJBOSA4147089</t>
-  </si>
-  <si>
-    <t>7120858528</t>
-  </si>
-  <si>
-    <t>SA00385976</t>
-  </si>
-  <si>
     <t>ACLU9746540</t>
   </si>
   <si>
@@ -962,21 +1133,6 @@
     <t>ATK2819SA00384504</t>
   </si>
   <si>
-    <t>ACLU9703889</t>
-  </si>
-  <si>
-    <t>03019</t>
-  </si>
-  <si>
-    <t>DJPHLA4154707</t>
-  </si>
-  <si>
-    <t>7300382712</t>
-  </si>
-  <si>
-    <t>ACLUSA00374261</t>
-  </si>
-  <si>
     <t>GLDU5296067</t>
   </si>
   <si>
@@ -1061,12 +1217,6 @@
     <t>SA003690730101</t>
   </si>
   <si>
-    <t>ACLU9706213</t>
-  </si>
-  <si>
-    <t>SA003765080101</t>
-  </si>
-  <si>
     <t>ACLU9703240</t>
   </si>
   <si>
@@ -1116,12 +1266,6 @@
   </si>
   <si>
     <t>AST3019SA00379489</t>
-  </si>
-  <si>
-    <t>ACLU9661021</t>
-  </si>
-  <si>
-    <t>SA003679630101</t>
   </si>
   <si>
     <t>MEDU3225786</t>
@@ -1235,7 +1379,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G138"/>
+  <dimension ref="A1:G161"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1292,9 +1436,7 @@
       <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
+      <c r="E3"/>
       <c r="F3" t="s">
         <v>15</v>
       </c>
@@ -1304,64 +1446,60 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="E4"/>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E5"/>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -1370,18 +1508,16 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="E7"/>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
@@ -1390,690 +1526,712 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E8"/>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" t="s">
-        <v>28</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E9"/>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10"/>
+        <v>39</v>
+      </c>
+      <c r="E10" t="s">
+        <v>39</v>
+      </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11"/>
+        <v>39</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
         <v>38</v>
-      </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" t="s">
-        <v>32</v>
       </c>
       <c r="D12" t="s">
         <v>39</v>
       </c>
-      <c r="E12"/>
+      <c r="E12" t="s">
+        <v>39</v>
+      </c>
       <c r="F12" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14"/>
+        <v>39</v>
+      </c>
+      <c r="E14" t="s">
+        <v>39</v>
+      </c>
       <c r="F14" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15"/>
+        <v>39</v>
+      </c>
+      <c r="E15" t="s">
+        <v>39</v>
+      </c>
       <c r="F15" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E16"/>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17"/>
+        <v>51</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
+      </c>
       <c r="F17" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" t="s">
-        <v>62</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="E18"/>
       <c r="F18" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D19" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E19"/>
       <c r="F19" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E20"/>
       <c r="F20" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21"/>
+      <c r="F21" t="s">
         <v>70</v>
-      </c>
-      <c r="B21" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" t="s">
-        <v>73</v>
-      </c>
-      <c r="E21" t="s">
-        <v>73</v>
-      </c>
-      <c r="F21" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" t="s">
         <v>75</v>
-      </c>
-      <c r="B22" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D22" t="s">
-        <v>76</v>
-      </c>
-      <c r="E22" t="s">
-        <v>76</v>
-      </c>
-      <c r="F22" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" t="s">
         <v>77</v>
       </c>
-      <c r="B23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" t="s">
-        <v>78</v>
-      </c>
-      <c r="E23"/>
+      <c r="E23" t="s">
+        <v>77</v>
+      </c>
       <c r="F23" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E24"/>
       <c r="F24" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
         <v>82</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>83</v>
       </c>
       <c r="E25"/>
       <c r="F25" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" t="s">
         <v>85</v>
       </c>
-      <c r="B26" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>86</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26"/>
+      <c r="F26" t="s">
         <v>87</v>
-      </c>
-      <c r="E26" t="s">
-        <v>87</v>
-      </c>
-      <c r="F26" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" t="s">
         <v>89</v>
       </c>
-      <c r="B27" t="s">
-        <v>71</v>
-      </c>
-      <c r="C27" t="s">
-        <v>86</v>
-      </c>
-      <c r="D27" t="s">
-        <v>87</v>
-      </c>
       <c r="E27" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F27" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" t="s">
+        <v>89</v>
+      </c>
+      <c r="E28" t="s">
+        <v>89</v>
+      </c>
+      <c r="F28" t="s">
         <v>90</v>
-      </c>
-      <c r="B28" t="s">
-        <v>91</v>
-      </c>
-      <c r="C28" t="s">
-        <v>92</v>
-      </c>
-      <c r="D28" t="s">
-        <v>93</v>
-      </c>
-      <c r="E28"/>
-      <c r="F28" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="C29" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="D29" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E29" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F29" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="D30" t="s">
-        <v>99</v>
-      </c>
-      <c r="E30"/>
+        <v>89</v>
+      </c>
+      <c r="E30" t="s">
+        <v>89</v>
+      </c>
       <c r="F30" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="C31" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="D31" t="s">
-        <v>102</v>
-      </c>
-      <c r="E31"/>
+        <v>89</v>
+      </c>
+      <c r="E31" t="s">
+        <v>89</v>
+      </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="C32" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="D32" t="s">
-        <v>104</v>
-      </c>
-      <c r="E32"/>
+        <v>89</v>
+      </c>
+      <c r="E32" t="s">
+        <v>89</v>
+      </c>
       <c r="F32" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B33" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="C33" t="s">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="D33" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="E33" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="F33" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="C34" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D34" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="E34" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="F34" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="B35" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="C35" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D35" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="E35" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="F35" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="B36" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="C36" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D36" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="E36" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="F36" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="B37" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="C37" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D37" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="E37" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="F37" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="B38" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="C38" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="D38" t="s">
-        <v>116</v>
-      </c>
-      <c r="E38"/>
+        <v>102</v>
+      </c>
+      <c r="E38" t="s">
+        <v>102</v>
+      </c>
       <c r="F38" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B39" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="C39" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="D39" t="s">
-        <v>119</v>
-      </c>
-      <c r="E39"/>
+        <v>102</v>
+      </c>
+      <c r="E39" t="s">
+        <v>102</v>
+      </c>
       <c r="F39" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B40" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C40" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="D40" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="E40"/>
       <c r="F40" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B41" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C41" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="D41" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="E41"/>
       <c r="F41" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="B42" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="D42" t="s">
-        <v>128</v>
-      </c>
-      <c r="E42"/>
+        <v>114</v>
+      </c>
+      <c r="E42" t="s">
+        <v>114</v>
+      </c>
       <c r="F42" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="B43" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C43" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D43" t="s">
-        <v>130</v>
-      </c>
-      <c r="E43"/>
+        <v>117</v>
+      </c>
+      <c r="E43" t="s">
+        <v>117</v>
+      </c>
       <c r="F43" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="B44" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="C44" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="D44" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="E44"/>
       <c r="F44" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="B45" t="s">
         <v>7</v>
@@ -2082,1338 +2240,1350 @@
         <v>8</v>
       </c>
       <c r="D45" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="E45"/>
       <c r="F45" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="B46" t="s">
-        <v>139</v>
+        <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>140</v>
+        <v>8</v>
       </c>
       <c r="D46" t="s">
-        <v>141</v>
-      </c>
-      <c r="E46" t="s">
-        <v>141</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="E46"/>
       <c r="F46" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="B47" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="D47" t="s">
-        <v>144</v>
-      </c>
-      <c r="E47" t="s">
-        <v>145</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="E47"/>
       <c r="F47" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="B48" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C48" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D48" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E48" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="F48" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="B49" t="s">
-        <v>31</v>
+        <v>135</v>
       </c>
       <c r="C49" t="s">
-        <v>32</v>
+        <v>136</v>
       </c>
       <c r="D49" t="s">
-        <v>152</v>
-      </c>
-      <c r="E49"/>
+        <v>137</v>
+      </c>
+      <c r="E49" t="s">
+        <v>137</v>
+      </c>
       <c r="F49" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="B50" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C50" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D50" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="E50" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="F50" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="B51" t="s">
         <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D51" t="s">
-        <v>158</v>
-      </c>
-      <c r="E51"/>
+        <v>143</v>
+      </c>
+      <c r="E51" t="s">
+        <v>143</v>
+      </c>
       <c r="F51" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>160</v>
+        <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D52" t="s">
-        <v>161</v>
-      </c>
-      <c r="E52"/>
+        <v>143</v>
+      </c>
+      <c r="E52" t="s">
+        <v>143</v>
+      </c>
       <c r="F52" t="s">
-        <v>50</v>
+        <v>144</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="B53" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="D53" t="s">
-        <v>163</v>
-      </c>
-      <c r="E53"/>
+        <v>143</v>
+      </c>
+      <c r="E53" t="s">
+        <v>143</v>
+      </c>
       <c r="F53" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="B54" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="D54" t="s">
-        <v>165</v>
-      </c>
-      <c r="E54"/>
+        <v>143</v>
+      </c>
+      <c r="E54" t="s">
+        <v>143</v>
+      </c>
       <c r="F54" t="s">
-        <v>59</v>
+        <v>144</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="B55" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D55" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="E55"/>
       <c r="F55" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="B56" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>140</v>
+        <v>8</v>
       </c>
       <c r="D56" t="s">
-        <v>170</v>
-      </c>
-      <c r="E56" t="s">
-        <v>171</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="E56"/>
       <c r="F56" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="B57" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="D57" t="s">
-        <v>174</v>
-      </c>
-      <c r="E57" t="s">
-        <v>174</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="E57"/>
       <c r="F57" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="B58" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D58" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="E58"/>
       <c r="F58" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="B59" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>92</v>
+        <v>8</v>
       </c>
       <c r="D59" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="E59"/>
       <c r="F59" t="s">
-        <v>94</v>
+        <v>161</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="B60" t="s">
-        <v>31</v>
+        <v>163</v>
       </c>
       <c r="C60" t="s">
-        <v>32</v>
+        <v>164</v>
       </c>
       <c r="D60" t="s">
-        <v>182</v>
-      </c>
-      <c r="E60"/>
+        <v>165</v>
+      </c>
+      <c r="E60" t="s">
+        <v>165</v>
+      </c>
       <c r="F60" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="B61" t="s">
-        <v>185</v>
+        <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>186</v>
+        <v>8</v>
       </c>
       <c r="D61" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="E61"/>
       <c r="F61" t="s">
-        <v>188</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="B62" t="s">
-        <v>31</v>
+        <v>135</v>
       </c>
       <c r="C62" t="s">
-        <v>32</v>
+        <v>136</v>
       </c>
       <c r="D62" t="s">
-        <v>190</v>
-      </c>
-      <c r="E62"/>
+        <v>170</v>
+      </c>
+      <c r="E62" t="s">
+        <v>170</v>
+      </c>
       <c r="F62" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="B63" t="s">
-        <v>91</v>
+        <v>163</v>
       </c>
       <c r="C63" t="s">
-        <v>92</v>
+        <v>173</v>
       </c>
       <c r="D63" t="s">
-        <v>193</v>
-      </c>
-      <c r="E63"/>
+        <v>174</v>
+      </c>
+      <c r="E63" t="s">
+        <v>174</v>
+      </c>
       <c r="F63" t="s">
-        <v>94</v>
+        <v>166</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="B64" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>92</v>
+        <v>8</v>
       </c>
       <c r="D64" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="E64"/>
       <c r="F64" t="s">
-        <v>94</v>
+        <v>177</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="B65" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D65" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="E65"/>
       <c r="F65" t="s">
-        <v>59</v>
+        <v>180</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="B66" t="s">
-        <v>31</v>
+        <v>135</v>
       </c>
       <c r="C66" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="D66" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="E66" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="F66" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="B67" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D67" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="E67" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="F67" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="B68" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="C68" t="s">
-        <v>72</v>
+        <v>136</v>
       </c>
       <c r="D68" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="E68" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="F68" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="B69" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="D69" t="s">
-        <v>206</v>
-      </c>
-      <c r="E69" t="s">
-        <v>206</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="E69"/>
       <c r="F69" t="s">
-        <v>74</v>
+        <v>194</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="B70" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="C70" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="D70" t="s">
-        <v>208</v>
-      </c>
-      <c r="E70"/>
+        <v>196</v>
+      </c>
+      <c r="E70" t="s">
+        <v>196</v>
+      </c>
       <c r="F70" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="B71" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D71" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="E71"/>
       <c r="F71" t="s">
-        <v>212</v>
+        <v>158</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="B72" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="C72" t="s">
-        <v>140</v>
+        <v>8</v>
       </c>
       <c r="D72" t="s">
-        <v>214</v>
-      </c>
-      <c r="E72" t="s">
-        <v>171</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="E72"/>
       <c r="F72" t="s">
-        <v>172</v>
+        <v>48</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="B73" t="s">
-        <v>185</v>
+        <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>186</v>
+        <v>8</v>
       </c>
       <c r="D73" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="E73"/>
       <c r="F73" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="B74" t="s">
         <v>12</v>
       </c>
       <c r="C74" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="D74" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="E74" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="F74" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="B75" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="C75" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D75" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="E75" t="s">
-        <v>145</v>
+        <v>210</v>
       </c>
       <c r="F75" t="s">
-        <v>146</v>
+        <v>211</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="B76" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C76" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D76" t="s">
-        <v>225</v>
-      </c>
-      <c r="E76" t="s">
-        <v>226</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="E76"/>
       <c r="F76" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="B77" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="C77" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="D77" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="E77"/>
       <c r="F77" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="B78" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C78" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D78" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="E78"/>
       <c r="F78" t="s">
-        <v>59</v>
+        <v>219</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="B79" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C79" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D79" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="E79"/>
       <c r="F79" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="B80" t="s">
-        <v>31</v>
+        <v>224</v>
       </c>
       <c r="C80" t="s">
-        <v>32</v>
+        <v>225</v>
       </c>
       <c r="D80" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="E80"/>
       <c r="F80" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="B81" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="C81" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D81" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E81" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="F81" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="B82" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C82" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D82" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="E82"/>
       <c r="F82" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="B83" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C83" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="D83" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="E83"/>
       <c r="F83" t="s">
-        <v>245</v>
+        <v>111</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B84" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C84" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="D84" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="E84"/>
       <c r="F84" t="s">
-        <v>248</v>
+        <v>111</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="B85" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C85" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D85" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="E85"/>
       <c r="F85" t="s">
-        <v>251</v>
+        <v>48</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="B86" t="s">
-        <v>31</v>
+        <v>241</v>
       </c>
       <c r="C86" t="s">
-        <v>32</v>
+        <v>242</v>
       </c>
       <c r="D86" t="s">
-        <v>253</v>
-      </c>
-      <c r="E86"/>
+        <v>243</v>
+      </c>
+      <c r="E86" t="s">
+        <v>243</v>
+      </c>
       <c r="F86" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="B87" t="s">
-        <v>31</v>
+        <v>241</v>
       </c>
       <c r="C87" t="s">
-        <v>32</v>
+        <v>242</v>
       </c>
       <c r="D87" t="s">
-        <v>256</v>
-      </c>
-      <c r="E87"/>
+        <v>243</v>
+      </c>
+      <c r="E87" t="s">
+        <v>243</v>
+      </c>
       <c r="F87" t="s">
-        <v>168</v>
+        <v>244</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="B88" t="s">
-        <v>91</v>
+        <v>241</v>
       </c>
       <c r="C88" t="s">
-        <v>140</v>
+        <v>242</v>
       </c>
       <c r="D88" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="E88" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="F88" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="B89" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="C89" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="D89" t="s">
-        <v>261</v>
-      </c>
-      <c r="E89"/>
+        <v>248</v>
+      </c>
+      <c r="E89" t="s">
+        <v>248</v>
+      </c>
       <c r="F89" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="B90" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="C90" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="D90" t="s">
-        <v>264</v>
-      </c>
-      <c r="E90"/>
+        <v>251</v>
+      </c>
+      <c r="E90" t="s">
+        <v>251</v>
+      </c>
       <c r="F90" t="s">
-        <v>265</v>
+        <v>75</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="B91" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C91" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D91" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="E91"/>
       <c r="F91" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="B92" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C92" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D92" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="E92"/>
       <c r="F92" t="s">
-        <v>79</v>
+        <v>257</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="B93" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="C93" t="s">
-        <v>72</v>
+        <v>136</v>
       </c>
       <c r="D93" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="E93" t="s">
-        <v>272</v>
+        <v>207</v>
       </c>
       <c r="F93" t="s">
-        <v>175</v>
+        <v>208</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="B94" t="s">
-        <v>71</v>
+        <v>224</v>
       </c>
       <c r="C94" t="s">
-        <v>72</v>
+        <v>225</v>
       </c>
       <c r="D94" t="s">
-        <v>274</v>
-      </c>
-      <c r="E94" t="s">
-        <v>274</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="E94"/>
       <c r="F94" t="s">
-        <v>175</v>
+        <v>262</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B95" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="C95" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="D95" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="E95"/>
       <c r="F95" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="B96" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C96" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D96" t="s">
-        <v>279</v>
-      </c>
-      <c r="E96"/>
+        <v>267</v>
+      </c>
+      <c r="E96" t="s">
+        <v>268</v>
+      </c>
       <c r="F96" t="s">
-        <v>34</v>
+        <v>269</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="B97" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="C97" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="D97" t="s">
-        <v>281</v>
-      </c>
-      <c r="E97"/>
+        <v>271</v>
+      </c>
+      <c r="E97" t="s">
+        <v>186</v>
+      </c>
       <c r="F97" t="s">
-        <v>94</v>
+        <v>187</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="B98" t="s">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="C98" t="s">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="D98" t="s">
-        <v>283</v>
-      </c>
-      <c r="E98"/>
+        <v>273</v>
+      </c>
+      <c r="E98" t="s">
+        <v>274</v>
+      </c>
       <c r="F98" t="s">
-        <v>94</v>
+        <v>275</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="B99" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C99" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="D99" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="E99"/>
       <c r="F99" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="B100" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="C100" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="D100" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="E100"/>
       <c r="F100" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>288</v>
+        <v>58</v>
       </c>
       <c r="B101" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C101" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D101" t="s">
-        <v>289</v>
-      </c>
-      <c r="E101" t="s">
-        <v>289</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="E101"/>
       <c r="F101" t="s">
-        <v>156</v>
+        <v>62</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="B102" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C102" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D102" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="E102"/>
       <c r="F102" t="s">
-        <v>292</v>
+        <v>48</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="B103" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="C103" t="s">
-        <v>92</v>
+        <v>8</v>
       </c>
       <c r="D103" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="E103"/>
       <c r="F103" t="s">
-        <v>94</v>
+        <v>285</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="B104" t="s">
-        <v>139</v>
+        <v>7</v>
       </c>
       <c r="C104" t="s">
-        <v>140</v>
+        <v>8</v>
       </c>
       <c r="D104" t="s">
-        <v>296</v>
-      </c>
-      <c r="E104" t="s">
-        <v>296</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="E104"/>
       <c r="F104" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="B105" t="s">
-        <v>185</v>
+        <v>12</v>
       </c>
       <c r="C105" t="s">
-        <v>186</v>
+        <v>136</v>
       </c>
       <c r="D105" t="s">
-        <v>299</v>
-      </c>
-      <c r="E105"/>
+        <v>289</v>
+      </c>
+      <c r="E105" t="s">
+        <v>289</v>
+      </c>
       <c r="F105" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="B106" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C106" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D106" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="E106"/>
       <c r="F106" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="B107" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C107" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="D107" t="s">
-        <v>305</v>
-      </c>
-      <c r="E107" t="s">
-        <v>306</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="E107"/>
       <c r="F107" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="B108" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C108" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D108" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="E108"/>
       <c r="F108" t="s">
-        <v>59</v>
+        <v>299</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="B109" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C109" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D109" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="E109"/>
       <c r="F109" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="B110" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C110" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D110" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="E110"/>
       <c r="F110" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="B111" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C111" t="s">
-        <v>317</v>
+        <v>8</v>
       </c>
       <c r="D111" t="s">
-        <v>318</v>
-      </c>
-      <c r="E111" t="s">
-        <v>319</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="E111"/>
       <c r="F111" t="s">
-        <v>320</v>
+        <v>204</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="B112" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="C112" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="D112" t="s">
-        <v>322</v>
-      </c>
-      <c r="E112"/>
+        <v>309</v>
+      </c>
+      <c r="E112" t="s">
+        <v>309</v>
+      </c>
       <c r="F112" t="s">
-        <v>94</v>
+        <v>310</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="B113" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C113" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D113" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="E113"/>
       <c r="F113" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="B114" t="s">
-        <v>185</v>
+        <v>7</v>
       </c>
       <c r="C114" t="s">
-        <v>186</v>
+        <v>8</v>
       </c>
       <c r="D114" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="E114"/>
       <c r="F114" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="B115" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="C115" t="s">
-        <v>92</v>
+        <v>8</v>
       </c>
       <c r="D115" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E115"/>
       <c r="F115" t="s">
-        <v>94</v>
+        <v>319</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B116" t="s">
-        <v>185</v>
+        <v>7</v>
       </c>
       <c r="C116" t="s">
-        <v>186</v>
+        <v>8</v>
       </c>
       <c r="D116" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="E116"/>
       <c r="F116" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="B117" t="s">
         <v>7</v>
@@ -3422,198 +3592,202 @@
         <v>8</v>
       </c>
       <c r="D117" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="E117"/>
       <c r="F117" t="s">
-        <v>336</v>
+        <v>80</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="B118" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="C118" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="D118" t="s">
-        <v>338</v>
-      </c>
-      <c r="E118"/>
+        <v>326</v>
+      </c>
+      <c r="E118" t="s">
+        <v>326</v>
+      </c>
       <c r="F118" t="s">
-        <v>59</v>
+        <v>211</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="B119" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="C119" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="D119" t="s">
-        <v>340</v>
-      </c>
-      <c r="E119"/>
+        <v>328</v>
+      </c>
+      <c r="E119" t="s">
+        <v>328</v>
+      </c>
       <c r="F119" t="s">
-        <v>341</v>
+        <v>211</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="B120" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C120" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D120" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="E120"/>
       <c r="F120" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="B121" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C121" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="D121" t="s">
-        <v>346</v>
-      </c>
-      <c r="E121" t="s">
-        <v>145</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="E121"/>
       <c r="F121" t="s">
-        <v>146</v>
+        <v>10</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="B122" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C122" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D122" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="E122"/>
       <c r="F122" t="s">
-        <v>123</v>
+        <v>336</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="B123" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="C123" t="s">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="D123" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="E123"/>
       <c r="F123" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="B124" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C124" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="D124" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="E124"/>
       <c r="F124" t="s">
-        <v>353</v>
+        <v>111</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="B125" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C125" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D125" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="E125"/>
       <c r="F125" t="s">
-        <v>356</v>
+        <v>126</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="B126" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C126" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="D126" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="E126"/>
       <c r="F126" t="s">
-        <v>359</v>
+        <v>111</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="B127" t="s">
-        <v>361</v>
+        <v>72</v>
       </c>
       <c r="C127" t="s">
-        <v>362</v>
+        <v>73</v>
       </c>
       <c r="D127" t="s">
-        <v>363</v>
-      </c>
-      <c r="E127"/>
+        <v>346</v>
+      </c>
+      <c r="E127" t="s">
+        <v>346</v>
+      </c>
       <c r="F127" t="s">
-        <v>364</v>
+        <v>197</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="B128" t="s">
         <v>7</v>
@@ -3622,193 +3796,613 @@
         <v>8</v>
       </c>
       <c r="D128" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="E128"/>
       <c r="F128" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>109</v>
       </c>
       <c r="D129" t="s">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="E129"/>
       <c r="F129" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="B130" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="C130" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="D130" t="s">
-        <v>371</v>
-      </c>
-      <c r="E130"/>
+        <v>353</v>
+      </c>
+      <c r="E130" t="s">
+        <v>353</v>
+      </c>
       <c r="F130" t="s">
-        <v>94</v>
+        <v>354</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="B131" t="s">
-        <v>31</v>
+        <v>356</v>
       </c>
       <c r="C131" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="D131" t="s">
-        <v>373</v>
-      </c>
-      <c r="E131"/>
+        <v>357</v>
+      </c>
+      <c r="E131" t="s">
+        <v>357</v>
+      </c>
       <c r="F131" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="B132" t="s">
-        <v>31</v>
+        <v>224</v>
       </c>
       <c r="C132" t="s">
-        <v>32</v>
+        <v>225</v>
       </c>
       <c r="D132" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="E132"/>
       <c r="F132" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="B133" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C133" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D133" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="E133"/>
       <c r="F133" t="s">
-        <v>59</v>
+        <v>364</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="B134" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C134" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D134" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="E134"/>
       <c r="F134" t="s">
-        <v>382</v>
+        <v>48</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="B135" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="C135" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="D135" t="s">
-        <v>384</v>
-      </c>
-      <c r="E135" t="s">
-        <v>384</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="E135"/>
       <c r="F135" t="s">
-        <v>156</v>
+        <v>369</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="B136" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C136" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D136" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="E136"/>
       <c r="F136" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="B137" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C137" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="D137" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="E137"/>
       <c r="F137" t="s">
-        <v>390</v>
+        <v>111</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="B138" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C138" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D138" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="E138"/>
       <c r="F138" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>378</v>
+      </c>
+      <c r="B139" t="s">
+        <v>224</v>
+      </c>
+      <c r="C139" t="s">
+        <v>225</v>
+      </c>
+      <c r="D139" t="s">
+        <v>379</v>
+      </c>
+      <c r="E139"/>
+      <c r="F139" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>381</v>
+      </c>
+      <c r="B140" t="s">
+        <v>12</v>
+      </c>
+      <c r="C140" t="s">
+        <v>109</v>
+      </c>
+      <c r="D140" t="s">
+        <v>382</v>
+      </c>
+      <c r="E140"/>
+      <c r="F140" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>383</v>
+      </c>
+      <c r="B141" t="s">
+        <v>224</v>
+      </c>
+      <c r="C141" t="s">
+        <v>225</v>
+      </c>
+      <c r="D141" t="s">
+        <v>384</v>
+      </c>
+      <c r="E141"/>
+      <c r="F141" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>386</v>
+      </c>
+      <c r="B142" t="s">
         <v>59</v>
+      </c>
+      <c r="C142" t="s">
+        <v>60</v>
+      </c>
+      <c r="D142" t="s">
+        <v>387</v>
+      </c>
+      <c r="E142"/>
+      <c r="F142" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>389</v>
+      </c>
+      <c r="B143" t="s">
+        <v>7</v>
+      </c>
+      <c r="C143" t="s">
+        <v>8</v>
+      </c>
+      <c r="D143" t="s">
+        <v>390</v>
+      </c>
+      <c r="E143"/>
+      <c r="F143" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>391</v>
+      </c>
+      <c r="B144" t="s">
+        <v>7</v>
+      </c>
+      <c r="C144" t="s">
+        <v>8</v>
+      </c>
+      <c r="D144" t="s">
+        <v>392</v>
+      </c>
+      <c r="E144"/>
+      <c r="F144" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>394</v>
+      </c>
+      <c r="B145" t="s">
+        <v>7</v>
+      </c>
+      <c r="C145" t="s">
+        <v>8</v>
+      </c>
+      <c r="D145" t="s">
+        <v>395</v>
+      </c>
+      <c r="E145"/>
+      <c r="F145" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>397</v>
+      </c>
+      <c r="B146" t="s">
+        <v>7</v>
+      </c>
+      <c r="C146" t="s">
+        <v>50</v>
+      </c>
+      <c r="D146" t="s">
+        <v>398</v>
+      </c>
+      <c r="E146" t="s">
+        <v>186</v>
+      </c>
+      <c r="F146" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>399</v>
+      </c>
+      <c r="B147" t="s">
+        <v>7</v>
+      </c>
+      <c r="C147" t="s">
+        <v>8</v>
+      </c>
+      <c r="D147" t="s">
+        <v>400</v>
+      </c>
+      <c r="E147"/>
+      <c r="F147" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>401</v>
+      </c>
+      <c r="B148" t="s">
+        <v>7</v>
+      </c>
+      <c r="C148" t="s">
+        <v>8</v>
+      </c>
+      <c r="D148" t="s">
+        <v>402</v>
+      </c>
+      <c r="E148"/>
+      <c r="F148" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>404</v>
+      </c>
+      <c r="B149" t="s">
+        <v>7</v>
+      </c>
+      <c r="C149" t="s">
+        <v>8</v>
+      </c>
+      <c r="D149" t="s">
+        <v>405</v>
+      </c>
+      <c r="E149"/>
+      <c r="F149" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>407</v>
+      </c>
+      <c r="B150" t="s">
+        <v>7</v>
+      </c>
+      <c r="C150" t="s">
+        <v>8</v>
+      </c>
+      <c r="D150" t="s">
+        <v>408</v>
+      </c>
+      <c r="E150"/>
+      <c r="F150" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>410</v>
+      </c>
+      <c r="B151" t="s">
+        <v>411</v>
+      </c>
+      <c r="C151" t="s">
+        <v>412</v>
+      </c>
+      <c r="D151" t="s">
+        <v>413</v>
+      </c>
+      <c r="E151"/>
+      <c r="F151" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>415</v>
+      </c>
+      <c r="B152" t="s">
+        <v>59</v>
+      </c>
+      <c r="C152" t="s">
+        <v>60</v>
+      </c>
+      <c r="D152" t="s">
+        <v>416</v>
+      </c>
+      <c r="E152"/>
+      <c r="F152" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>418</v>
+      </c>
+      <c r="B153" t="s">
+        <v>12</v>
+      </c>
+      <c r="C153" t="s">
+        <v>109</v>
+      </c>
+      <c r="D153" t="s">
+        <v>419</v>
+      </c>
+      <c r="E153"/>
+      <c r="F153" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>420</v>
+      </c>
+      <c r="B154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C154" t="s">
+        <v>8</v>
+      </c>
+      <c r="D154" t="s">
+        <v>421</v>
+      </c>
+      <c r="E154"/>
+      <c r="F154" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>423</v>
+      </c>
+      <c r="B155" t="s">
+        <v>7</v>
+      </c>
+      <c r="C155" t="s">
+        <v>8</v>
+      </c>
+      <c r="D155" t="s">
+        <v>424</v>
+      </c>
+      <c r="E155"/>
+      <c r="F155" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>426</v>
+      </c>
+      <c r="B156" t="s">
+        <v>7</v>
+      </c>
+      <c r="C156" t="s">
+        <v>8</v>
+      </c>
+      <c r="D156" t="s">
+        <v>427</v>
+      </c>
+      <c r="E156"/>
+      <c r="F156" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>428</v>
+      </c>
+      <c r="B157" t="s">
+        <v>7</v>
+      </c>
+      <c r="C157" t="s">
+        <v>8</v>
+      </c>
+      <c r="D157" t="s">
+        <v>429</v>
+      </c>
+      <c r="E157"/>
+      <c r="F157" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>431</v>
+      </c>
+      <c r="B158" t="s">
+        <v>72</v>
+      </c>
+      <c r="C158" t="s">
+        <v>73</v>
+      </c>
+      <c r="D158" t="s">
+        <v>432</v>
+      </c>
+      <c r="E158" t="s">
+        <v>432</v>
+      </c>
+      <c r="F158" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>433</v>
+      </c>
+      <c r="B159" t="s">
+        <v>7</v>
+      </c>
+      <c r="C159" t="s">
+        <v>8</v>
+      </c>
+      <c r="D159" t="s">
+        <v>434</v>
+      </c>
+      <c r="E159"/>
+      <c r="F159" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>436</v>
+      </c>
+      <c r="B160" t="s">
+        <v>7</v>
+      </c>
+      <c r="C160" t="s">
+        <v>8</v>
+      </c>
+      <c r="D160" t="s">
+        <v>437</v>
+      </c>
+      <c r="E160"/>
+      <c r="F160" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>439</v>
+      </c>
+      <c r="B161" t="s">
+        <v>7</v>
+      </c>
+      <c r="C161" t="s">
+        <v>8</v>
+      </c>
+      <c r="D161" t="s">
+        <v>440</v>
+      </c>
+      <c r="E161"/>
+      <c r="F161" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
